--- a/delta2/evidence/dfir/2021-03-29-dfir--ransom-sodinokibi--v1.1.xlsx
+++ b/delta2/evidence/dfir/2021-03-29-dfir--ransom-sodinokibi--v1.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/evidence/dfir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D76328-8610-7B4F-9921-C6A454C28876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582DFE14-577E-994A-94FC-66EF1D7F3920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="-21100" windowWidth="38340" windowHeight="21100" activeTab="2" xr2:uid="{4FBEA496-5ECB-C248-B1D9-3E5612DBBE3F}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="146">
   <si>
     <t>Description</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Protocol</t>
   </si>
   <si>
-    <t>netcon--winos</t>
-  </si>
-  <si>
     <t>CommandLine</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
   </si>
   <si>
     <t>ServiceStartType</t>
-  </si>
-  <si>
-    <t>process-access--winos</t>
   </si>
   <si>
     <t>Access</t>
@@ -385,9 +379,6 @@
     <t>ldapsearch</t>
   </si>
   <si>
-    <t>cmd-script</t>
-  </si>
-  <si>
     <t>%COMSPEC% /b /c start /b /min powershell -nop -w hidden -encodedcommand &lt;encoded command&gt;</t>
   </si>
   <si>
@@ -412,9 +403,6 @@
     <t>cobalt strike beacon</t>
   </si>
   <si>
-    <t>HackTool</t>
-  </si>
-  <si>
     <t>Malware</t>
   </si>
   <si>
@@ -424,12 +412,6 @@
     <t>ProcessInjection</t>
   </si>
   <si>
-    <t>CredDump</t>
-  </si>
-  <si>
-    <t>Beacon</t>
-  </si>
-  <si>
     <t>IcedID</t>
   </si>
   <si>
@@ -460,9 +442,6 @@
     <t>cobalt strike</t>
   </si>
   <si>
-    <t>c2</t>
-  </si>
-  <si>
     <t>Rundll32 &gt; Svchost.exe</t>
   </si>
   <si>
@@ -478,9 +457,6 @@
     <t>svchost.exe --config svchost.conf --progress --no-check-certificate copy "\\ServerName\C$\ShareName" ftp1:/&lt;DomainName&gt;/FILES/C/ShareName</t>
   </si>
   <si>
-    <t>ET Pro - Network</t>
-  </si>
-  <si>
     <t>ETPRO TROJAN Cobalt Strike Malleable C2 JQuery Custom Profile M2</t>
   </si>
   <si>
@@ -515,6 +491,48 @@
   </si>
   <si>
     <t>Sigma</t>
+  </si>
+  <si>
+    <t>AlertSource [Sigma, EtPro]</t>
+  </si>
+  <si>
+    <t>Ioc Tag Like [TTP, C2, Tool, File, Account, Ip, ProcessSpawn, ProcessInjection, Url]</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>TTP-CredDump</t>
+  </si>
+  <si>
+    <t>C2-Beacon</t>
+  </si>
+  <si>
+    <t>file-create</t>
+  </si>
+  <si>
+    <t>netcon</t>
+  </si>
+  <si>
+    <t>process-access</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <t>edr specific data like [mde]</t>
+  </si>
+  <si>
+    <t>script--cmd</t>
+  </si>
+  <si>
+    <t>EtPro</t>
   </si>
 </sst>
 </file>
@@ -553,18 +571,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -637,13 +649,13 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -652,100 +664,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="33">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -991,6 +951,18 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1007,7 +979,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="1"/>
         </left>
@@ -1020,8 +1024,6 @@
         <bottom style="thin">
           <color theme="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1043,6 +1045,12 @@
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1130,7 +1138,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0E3B4673-AD25-6A4D-8F8D-064CEFD4B92B}" name="Table10" displayName="Table10" ref="A1:N2" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0E3B4673-AD25-6A4D-8F8D-064CEFD4B92B}" name="Table10" displayName="Table10" ref="A1:N2" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:N2" xr:uid="{0E3B4673-AD25-6A4D-8F8D-064CEFD4B92B}"/>
   <tableColumns count="14">
     <tableColumn id="2" xr3:uid="{E605C444-C226-4346-BCBA-52D62757D0C6}" name="Index"/>
@@ -1153,7 +1161,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2EDB04BC-9502-994C-A816-5C39F9E09A2A}" name="Table11" displayName="Table11" ref="A1:J2" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2EDB04BC-9502-994C-A816-5C39F9E09A2A}" name="Table11" displayName="Table11" ref="A1:J2" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:J2" xr:uid="{2EDB04BC-9502-994C-A816-5C39F9E09A2A}"/>
   <tableColumns count="10">
     <tableColumn id="2" xr3:uid="{F0D4A855-D7F0-4F42-8ABD-537F34A0DEAD}" name="Index"/>
@@ -1172,15 +1180,18 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C8BCB385-41B4-534F-910B-02D37EEF1C74}" name="Table8" displayName="Table8" ref="A1:J3" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:J3" xr:uid="{C8BCB385-41B4-534F-910B-02D37EEF1C74}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C8BCB385-41B4-534F-910B-02D37EEF1C74}" name="Table8" displayName="Table8" ref="A1:J4" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:J4" xr:uid="{C8BCB385-41B4-534F-910B-02D37EEF1C74}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J4">
+    <sortCondition ref="A1:A4"/>
+  </sortState>
   <tableColumns count="10">
     <tableColumn id="2" xr3:uid="{989B0AC2-E3DE-1F4F-AD3E-6D8F7E2B04ED}" name="Index"/>
     <tableColumn id="3" xr3:uid="{A7865D69-B2FE-EC42-9D1B-F15A0B19A0B6}" name="DataSource"/>
     <tableColumn id="1" xr3:uid="{A01D65E2-99C8-2443-8E32-029375F86783}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{9BFC03D1-5A49-C547-B104-0C491A21FB0D}" name="ServiceFileName" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{9BFC03D1-5A49-C547-B104-0C491A21FB0D}" name="ServiceFileName" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{9D065F18-50B6-D54E-A0A9-54FCF0CB7050}" name="ServiceAccount"/>
-    <tableColumn id="6" xr3:uid="{DA9F6BFD-0EAC-2646-B078-7BF0150A774E}" name="ServiceName" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{DA9F6BFD-0EAC-2646-B078-7BF0150A774E}" name="ServiceName" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{E50E5F73-527F-834E-BCF9-BECBE813793F}" name="ServiceType"/>
     <tableColumn id="8" xr3:uid="{CD990353-D1B3-CF47-93B4-741F7D4ABCFD}" name="ServiceStartType"/>
     <tableColumn id="9" xr3:uid="{D94FBBD8-A009-E44D-A7B4-32423D3043F1}" name="NsObject"/>
@@ -1191,29 +1202,32 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}" name="Table4" displayName="Table4" ref="A1:D11" totalsRowShown="0" headerRowDxfId="28">
-  <autoFilter ref="A1:D11" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}" name="Table4" displayName="Table4" ref="A1:D12" totalsRowShown="0" headerRowDxfId="28">
+  <autoFilter ref="A1:D12" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D2">
     <sortCondition ref="A1:A2"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{55BECEA3-155C-FB4E-A6DF-73D8DA5F1DF6}" name="Index" dataDxfId="27"/>
     <tableColumn id="3" xr3:uid="{46938C8F-86E8-C344-9BB3-F9592B7417A9}" name="IocType"/>
-    <tableColumn id="4" xr3:uid="{E15020CD-8B74-A34D-B419-B4CE0245E9E0}" name="Ioc" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{6FB170F5-6334-4C47-8819-157AB78233B2}" name="Description" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{E15020CD-8B74-A34D-B419-B4CE0245E9E0}" name="Ioc" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{6FB170F5-6334-4C47-8819-157AB78233B2}" name="Description" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AF94A374-1491-8B4D-AFCC-A64EC3D2A13D}" name="Table7" displayName="Table7" ref="A1:E12" totalsRowShown="0" headerRowDxfId="26">
-  <autoFilter ref="A1:E12" xr:uid="{AF94A374-1491-8B4D-AFCC-A64EC3D2A13D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AF94A374-1491-8B4D-AFCC-A64EC3D2A13D}" name="Table7" displayName="Table7" ref="A1:E13" totalsRowShown="0" headerRowDxfId="24">
+  <autoFilter ref="A1:E13" xr:uid="{AF94A374-1491-8B4D-AFCC-A64EC3D2A13D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">
+    <sortCondition ref="A1:A13"/>
+  </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{4082B79E-9BAC-EE49-9D02-A13CEF584AC0}" name="Index" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{3BA7C236-8980-8148-BF61-C4D7D7EB4FF6}" name="AlertType" dataDxfId="0"/>
-    <tableColumn id="1" xr3:uid="{1D1B78D1-79B4-7647-A551-F48C45DC7E05}" name="Description" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{D523A10C-1686-7841-A261-F254482F7C12}" name="AlertName" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{4082B79E-9BAC-EE49-9D02-A13CEF584AC0}" name="Index" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{3BA7C236-8980-8148-BF61-C4D7D7EB4FF6}" name="AlertType" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{1D1B78D1-79B4-7647-A551-F48C45DC7E05}" name="Description" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{D523A10C-1686-7841-A261-F254482F7C12}" name="AlertName" dataDxfId="20"/>
     <tableColumn id="5" xr3:uid="{98586F36-1C3E-5F45-B3CB-99FE7469F855}" name="OpenSourceLink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1221,14 +1235,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}" name="Table1" displayName="Table1" ref="A1:L22" totalsRowShown="0" headerRowDxfId="24">
-  <autoFilter ref="A1:L22" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}" name="Table1" displayName="Table1" ref="A1:L23" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="A1:L23" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7F4E572F-19FC-1C42-BF21-EF3EAA1CF83A}" name="Index"/>
     <tableColumn id="3" xr3:uid="{5246F5AC-4F4A-BC4C-892F-2E08E3349789}" name="DataSource"/>
-    <tableColumn id="2" xr3:uid="{5F8A3ABF-2915-064C-BFEA-3D5131ED4FEE}" name="Description" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{5F8A3ABF-2915-064C-BFEA-3D5131ED4FEE}" name="Description" dataDxfId="18"/>
     <tableColumn id="6" xr3:uid="{EC97FE83-2E03-5E48-888D-422875E85798}" name="CommandLine"/>
-    <tableColumn id="7" xr3:uid="{98ED451A-7E15-194B-9A2A-B48F6F5A495C}" name="InitiatingCommandLine" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{98ED451A-7E15-194B-9A2A-B48F6F5A495C}" name="InitiatingCommandLine" dataDxfId="17"/>
     <tableColumn id="8" xr3:uid="{A1DCCB51-4CD0-3D42-9845-AF6CCD7105FD}" name="FileName"/>
     <tableColumn id="9" xr3:uid="{CE79E0AD-312B-0E42-B228-D4F253BA6806}" name="InitiatingFileName"/>
     <tableColumn id="10" xr3:uid="{59BE221F-7EFC-0F46-9385-80C5DBB9BDA0}" name="FilePath"/>
@@ -1242,8 +1256,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}" name="Table5" displayName="Table5" ref="A1:K2" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="A1:K2" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}" name="Table5" displayName="Table5" ref="A1:K3" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:K3" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K3">
+    <sortCondition ref="A1:A3"/>
+  </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{76C592A4-DC6F-6D43-92A4-408F9DA9250D}" name="Index"/>
     <tableColumn id="3" xr3:uid="{8DB66F33-29D6-F943-8797-F32327A212C4}" name="DataSource"/>
@@ -1262,7 +1279,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5488C31B-B913-0C48-8EC2-BF3FA3FCC2F3}" name="Table2" displayName="Table2" ref="A1:O2" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5488C31B-B913-0C48-8EC2-BF3FA3FCC2F3}" name="Table2" displayName="Table2" ref="A1:O2" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A1:O2" xr:uid="{5488C31B-B913-0C48-8EC2-BF3FA3FCC2F3}"/>
   <tableColumns count="15">
     <tableColumn id="2" xr3:uid="{C61E54E6-397A-FC46-AAD6-240590F974E3}" name="Index"/>
@@ -1275,8 +1292,8 @@
     <tableColumn id="8" xr3:uid="{31283C92-1EFA-6A42-9DBF-04528B88D2E1}" name="DstUrl"/>
     <tableColumn id="9" xr3:uid="{51BA9213-7570-8E41-AE11-0FE14C3D5701}" name="Protocol"/>
     <tableColumn id="10" xr3:uid="{A2C22DBE-E948-9E46-816B-78C44758D5EF}" name="InitiatingFileName"/>
-    <tableColumn id="11" xr3:uid="{6B8E6EFD-C9FC-D343-A788-A722434ECD48}" name="InitiatingFilePath" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{AC978556-86B3-B84E-A543-525614EB9453}" name="InititatingCommandLine" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{6B8E6EFD-C9FC-D343-A788-A722434ECD48}" name="InitiatingFilePath" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{AC978556-86B3-B84E-A543-525614EB9453}" name="InititatingCommandLine" dataDxfId="13"/>
     <tableColumn id="13" xr3:uid="{880D4AC4-B22D-434F-8A35-AED8146625FB}" name="Account"/>
     <tableColumn id="14" xr3:uid="{C092A7D2-DC1E-F84A-A2FD-A8D268736295}" name="NsObject"/>
     <tableColumn id="15" xr3:uid="{6D50EE84-9CBF-294C-BBA4-C4B004FED849}" name="NsMeta"/>
@@ -1286,18 +1303,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CE00DF4B-4838-3746-8DA8-223607BE2986}" name="Table9" displayName="Table9" ref="A1:K2" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CE00DF4B-4838-3746-8DA8-223607BE2986}" name="Table9" displayName="Table9" ref="A1:K2" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:K2" xr:uid="{CE00DF4B-4838-3746-8DA8-223607BE2986}"/>
   <tableColumns count="11">
-    <tableColumn id="2" xr3:uid="{DDC92C39-DF7D-F145-A125-35CE110317A9}" name="Index" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{DDC92C39-DF7D-F145-A125-35CE110317A9}" name="Index" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{42FB8108-D944-5E41-9DA2-C80682897705}" name="DataSource"/>
-    <tableColumn id="4" xr3:uid="{C78F30C1-F3D2-4947-AA2C-9F4F7C73441D}" name="Description" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{C78F30C1-F3D2-4947-AA2C-9F4F7C73441D}" name="Description" dataDxfId="10"/>
     <tableColumn id="5" xr3:uid="{F8DB3A8C-CCA7-FA4B-B054-EEF4AFBDDB4A}" name="SrcProcess"/>
     <tableColumn id="6" xr3:uid="{85F4D6B8-4608-3C44-97D3-0C4E61F02C01}" name="SrcProcessPath"/>
     <tableColumn id="7" xr3:uid="{6A22DAC2-2589-7B4E-9463-85B1BB8F7F22}" name="TgtProcess"/>
     <tableColumn id="8" xr3:uid="{F21FFD42-BED9-6D4E-B1E8-DC3622EA9839}" name="TgtProcessPath"/>
     <tableColumn id="9" xr3:uid="{9C5EFD03-F9F2-9B49-B696-939146DC942E}" name="Access"/>
-    <tableColumn id="10" xr3:uid="{0F18CD86-04B9-174A-A498-FA50ADE31CAB}" name="Trace" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{0F18CD86-04B9-174A-A498-FA50ADE31CAB}" name="Trace" dataDxfId="9"/>
     <tableColumn id="11" xr3:uid="{870A7B54-C726-2743-8557-6389004E2EB0}" name="NsObject"/>
     <tableColumn id="12" xr3:uid="{D7C8AEEE-0E43-864C-839B-BFF4391557E8}" name="NsMeta"/>
   </tableColumns>
@@ -1306,25 +1323,28 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{CEFAFF50-3320-0243-AFDF-77D01F97C428}" name="Table12" displayName="Table12" ref="A1:D2" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{CEFAFF50-3320-0243-AFDF-77D01F97C428}" name="Table12" displayName="Table12" ref="A1:D2" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:D2" xr:uid="{CEFAFF50-3320-0243-AFDF-77D01F97C428}"/>
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{21897088-4E03-7549-9652-A4BEEE760E89}" name="Index"/>
     <tableColumn id="3" xr3:uid="{605B641F-5F59-B94F-991C-43300CC9BBDA}" name="DataSource"/>
     <tableColumn id="4" xr3:uid="{7427C911-F326-EF41-878F-ED1DD5F1C542}" name="Description"/>
-    <tableColumn id="5" xr3:uid="{29472079-B95D-E845-9253-44428660972F}" name="ShellCommand" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{29472079-B95D-E845-9253-44428660972F}" name="ShellCommand" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}" name="Table6" displayName="Table6" ref="A1:D2" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="A1:D2" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}" name="Table6" displayName="Table6" ref="A1:D3" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:D3" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D3">
+    <sortCondition ref="A1:A3"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{77268EB9-1251-9745-92E1-436BE6AE585B}" name="Index"/>
     <tableColumn id="3" xr3:uid="{59DDF428-3E0B-6643-8972-9BD2488E3FA7}" name="DataSource"/>
-    <tableColumn id="6" xr3:uid="{575BE17D-399F-694F-BA78-2C24B0637E65}" name="Description" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{575BE17D-399F-694F-BA78-2C24B0637E65}" name="Description" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{1DA5E534-877D-D843-9D4B-10ED484674AF}" name="ScriptContents"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1663,36 +1683,36 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="7" width="122.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1700,25 +1720,25 @@
         <v>44284</v>
       </c>
       <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
         <v>64</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1737,7 +1757,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1757,52 +1777,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1821,7 +1844,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1837,40 +1860,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="G1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1886,11 +1912,11 @@
   <sheetPr>
     <tabColor theme="3" tint="9.9978637043366805E-2"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1898,7 +1924,7 @@
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" customWidth="1"/>
-    <col min="4" max="4" width="61.1640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="61.1640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -1907,84 +1933,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>102</v>
+        <v>30</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H3" t="s">
-        <v>101</v>
+      <c r="G4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2001,32 +2036,32 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="74.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="74.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2034,122 +2069,130 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="6" t="s">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2165,169 +2208,178 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="102.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="102.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="153.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="E6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="E7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="E8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="E9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="6" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="E11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
-        <v>1</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="6" t="s">
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="E12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
-        <v>2</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="6" t="s">
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="E13" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
-        <v>3</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="E5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
-        <v>4</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="E6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
-        <v>5</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="E7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
-        <v>6</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="E8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
-        <v>7</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
-        <v>8</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="E10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
-        <v>9</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="E11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
-        <v>10</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2343,19 +2395,19 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="51" style="6" customWidth="1"/>
-    <col min="4" max="4" width="68.1640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="51" style="5" customWidth="1"/>
+    <col min="4" max="4" width="68.1640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="54.6640625" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
     <col min="7" max="7" width="29.1640625" bestFit="1" customWidth="1"/>
@@ -2367,54 +2419,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="6"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -2423,10 +2473,10 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="6"/>
+      <c r="D3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -2435,10 +2485,10 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="6"/>
+      <c r="D4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -2447,10 +2497,10 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="6"/>
+      <c r="D5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -2459,10 +2509,10 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="6"/>
+      <c r="D6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -2471,10 +2521,10 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="6"/>
+      <c r="D7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -2483,10 +2533,10 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="6"/>
+      <c r="D8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -2495,10 +2545,10 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="6"/>
+      <c r="D9" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -2507,10 +2557,10 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="6"/>
+      <c r="D10" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -2519,10 +2569,10 @@
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="6"/>
+      <c r="D11" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -2531,10 +2581,10 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="6"/>
+      <c r="D12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -2543,10 +2593,10 @@
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="6"/>
+      <c r="D13" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -2555,10 +2605,10 @@
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="6"/>
+      <c r="D14" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -2567,10 +2617,10 @@
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="6"/>
+      <c r="D15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -2579,10 +2629,10 @@
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="6"/>
+      <c r="D16" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -2592,14 +2642,14 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="5"/>
       <c r="K17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2609,10 +2659,10 @@
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="6"/>
+      <c r="D18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -2621,10 +2671,10 @@
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="6"/>
+      <c r="D19" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -2633,10 +2683,10 @@
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="6"/>
+      <c r="D20" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -2645,10 +2695,10 @@
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="6"/>
+      <c r="D21" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -2657,10 +2707,22 @@
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="6"/>
+      <c r="D22" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2675,11 +2737,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2698,37 +2760,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2737,19 +2799,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
         <v>89</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G3" t="s">
         <v>90</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2769,7 +2839,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2781,56 +2851,56 @@
     <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="60.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.6640625" customWidth="1"/>
-    <col min="11" max="11" width="61.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.1640625" customWidth="1"/>
     <col min="15" max="15" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="10" t="s">
+      <c r="J1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2839,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2859,64 +2929,64 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
     <col min="5" max="5" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.5" style="6" customWidth="1"/>
+    <col min="9" max="9" width="61.5" style="5" customWidth="1"/>
     <col min="10" max="10" width="17.1640625" customWidth="1"/>
     <col min="11" max="11" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2935,7 +3005,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2943,26 +3013,29 @@
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="114.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="114.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>29</v>
+      <c r="D1" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2978,11 +3051,11 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2994,31 +3067,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>94</v>
+        <v>142</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
